--- a/참고자료/DB_테이블설계서.xlsx
+++ b/참고자료/DB_테이블설계서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12870" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12870" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="MEMBER TABLE" sheetId="1" r:id="rId1"/>
@@ -2476,6 +2476,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2517,24 +2535,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2846,39 +2846,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2887,18 +2887,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -2908,22 +2908,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -3326,36 +3326,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -3364,6 +3359,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -3394,39 +3394,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3435,18 +3435,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -3459,18 +3459,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3802,31 +3802,36 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -3835,11 +3840,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -3870,39 +3870,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3911,18 +3911,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -3935,18 +3935,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4200,31 +4200,36 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -4233,11 +4238,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -4268,39 +4268,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4309,18 +4309,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -4333,18 +4333,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4618,31 +4618,36 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -4651,11 +4656,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -4686,39 +4686,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4727,18 +4727,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -4751,18 +4751,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5046,31 +5046,36 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -5079,11 +5084,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -5095,8 +5095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5114,39 +5114,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5155,18 +5155,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -5176,22 +5176,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -5646,31 +5646,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -5679,11 +5684,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -5714,39 +5714,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5755,18 +5755,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -5776,22 +5776,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6030,36 +6030,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -6068,6 +6063,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -6098,39 +6098,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6139,18 +6139,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -6160,22 +6160,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6426,36 +6426,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -6464,6 +6459,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -6494,39 +6494,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6535,18 +6535,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -6556,22 +6556,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6798,36 +6798,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -6836,6 +6831,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -6847,7 +6847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -6866,39 +6866,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6907,18 +6907,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -6928,22 +6928,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -7398,31 +7398,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -7431,11 +7436,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -7466,39 +7466,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7507,18 +7507,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -7528,22 +7528,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -7938,31 +7938,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -7971,11 +7976,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -8006,39 +8006,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8047,18 +8047,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8068,22 +8068,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -8358,31 +8358,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -8391,11 +8396,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -8426,39 +8426,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8467,18 +8467,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8488,22 +8488,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -8836,31 +8836,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -8869,11 +8874,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -8904,39 +8904,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8945,18 +8945,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8966,22 +8966,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -9312,31 +9312,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -9345,11 +9350,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -9380,39 +9380,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9421,18 +9421,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -9442,22 +9442,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -9750,31 +9750,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -9783,11 +9788,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -9818,39 +9818,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9859,18 +9859,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -9880,22 +9880,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -10224,31 +10224,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -10257,11 +10262,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -10292,39 +10292,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -10333,18 +10333,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -10357,18 +10357,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10644,31 +10644,36 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -10677,11 +10682,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>

--- a/참고자료/DB_테이블설계서.xlsx
+++ b/참고자료/DB_테이블설계서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52\Documents\Final_Project-PMC-\참고자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10\Documents\Final_Project-PMC-\참고자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12870" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12870" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="MEMBER TABLE" sheetId="1" r:id="rId1"/>
@@ -1263,18 +1263,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PL_PL_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PL_PL_QTY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PL_PL_PRICE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>카테고리 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1316,6 +1304,18 @@
   </si>
   <si>
     <t>P_ID_PK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_PR_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_PR_QTY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL_PR_PRICE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2476,24 +2476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2535,6 +2517,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2846,39 +2846,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2887,18 +2887,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -2908,22 +2908,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -2994,7 +2994,7 @@
         <v>47</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>48</v>
@@ -3326,31 +3326,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -3359,11 +3364,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -3394,39 +3394,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3435,18 +3435,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -3459,18 +3459,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3584,7 +3584,7 @@
         <v>85</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>14</v>
@@ -3802,36 +3802,31 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -3840,6 +3835,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -3870,39 +3870,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3911,18 +3911,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -3935,18 +3935,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4200,36 +4200,31 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -4238,6 +4233,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -4268,39 +4268,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4309,18 +4309,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -4333,18 +4333,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4396,7 +4396,7 @@
         <v>115</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>14</v>
@@ -4618,36 +4618,31 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -4656,6 +4651,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -4686,39 +4686,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4727,18 +4727,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -4751,18 +4751,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5046,36 +5046,31 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -5084,6 +5079,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -5095,7 +5095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -5114,39 +5114,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5155,18 +5155,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -5176,22 +5176,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -5646,36 +5646,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -5684,6 +5679,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -5714,39 +5714,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5755,18 +5755,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -5776,22 +5776,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6030,31 +6030,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -6063,11 +6068,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -6079,8 +6079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6098,39 +6098,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6139,18 +6139,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -6160,22 +6160,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6230,7 +6230,7 @@
         <v>287</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C9" s="50"/>
       <c r="D9" s="37"/>
@@ -6243,10 +6243,10 @@
     </row>
     <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="38"/>
@@ -6310,7 +6310,7 @@
         <v>300</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="38"/>
@@ -6326,7 +6326,7 @@
         <v>153</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="37"/>
@@ -6342,7 +6342,7 @@
         <v>194</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="38"/>
@@ -6426,31 +6426,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -6459,11 +6464,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -6494,39 +6494,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6535,18 +6535,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -6556,22 +6556,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6621,7 +6621,7 @@
     </row>
     <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="50"/>
@@ -6798,31 +6798,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -6831,11 +6836,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -6866,39 +6866,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6907,18 +6907,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -6928,22 +6928,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6994,7 +6994,7 @@
         <v>85</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>14</v>
@@ -7398,36 +7398,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -7436,6 +7431,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -7466,39 +7466,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7507,18 +7507,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -7528,22 +7528,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -7938,36 +7938,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -7976,6 +7971,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -8006,39 +8006,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8047,18 +8047,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8068,22 +8068,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -8358,36 +8358,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -8396,6 +8391,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -8426,39 +8426,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8467,18 +8467,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8488,22 +8488,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -8836,36 +8836,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -8874,6 +8869,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -8904,39 +8904,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8945,18 +8945,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8966,22 +8966,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -9032,7 +9032,7 @@
         <v>115</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>14</v>
@@ -9096,7 +9096,7 @@
         <v>85</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>14</v>
@@ -9312,36 +9312,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -9350,6 +9345,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -9380,39 +9380,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9421,18 +9421,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -9442,22 +9442,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -9508,7 +9508,7 @@
         <v>115</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>14</v>
@@ -9750,36 +9750,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -9788,6 +9783,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -9818,39 +9818,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9859,18 +9859,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -9880,22 +9880,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -10224,36 +10224,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -10262,6 +10257,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -10292,39 +10292,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -10333,18 +10333,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -10357,18 +10357,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10644,36 +10644,31 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -10682,6 +10677,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>

--- a/참고자료/DB_테이블설계서.xlsx
+++ b/참고자료/DB_테이블설계서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10\Documents\Final_Project-PMC-\참고자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53\Documents\Final_Project-PMC-\참고자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12870" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12870" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MEMBER TABLE" sheetId="1" r:id="rId1"/>
@@ -2476,6 +2476,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2517,24 +2535,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2846,39 +2846,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2887,18 +2887,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -2908,22 +2908,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -3326,36 +3326,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -3364,6 +3359,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -3394,39 +3394,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3435,18 +3435,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -3459,18 +3459,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3802,31 +3802,36 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -3835,11 +3840,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -3870,39 +3870,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3911,18 +3911,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -3935,18 +3935,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4200,31 +4200,36 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -4233,11 +4238,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -4268,39 +4268,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4309,18 +4309,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -4333,18 +4333,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4618,31 +4618,36 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -4651,11 +4656,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -4686,39 +4686,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4727,18 +4727,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -4751,18 +4751,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5046,31 +5046,36 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -5079,11 +5084,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -5114,39 +5114,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5155,18 +5155,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -5176,22 +5176,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -5646,31 +5646,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -5679,11 +5684,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -5714,39 +5714,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5755,18 +5755,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -5776,22 +5776,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6030,36 +6030,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -6068,6 +6063,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -6079,7 +6079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -6098,39 +6098,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6139,18 +6139,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -6160,22 +6160,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6426,36 +6426,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -6464,6 +6459,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -6494,39 +6494,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6535,18 +6535,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -6556,22 +6556,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6798,36 +6798,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -6836,6 +6831,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -6866,39 +6866,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6907,18 +6907,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -6928,22 +6928,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -7398,31 +7398,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -7431,11 +7436,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -7466,39 +7466,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7507,18 +7507,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -7528,22 +7528,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -7938,31 +7938,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -7971,11 +7976,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -8006,39 +8006,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8047,18 +8047,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8068,22 +8068,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -8358,31 +8358,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -8391,11 +8396,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -8407,8 +8407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8426,39 +8426,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8467,18 +8467,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8488,22 +8488,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -8836,31 +8836,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -8869,11 +8874,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -8904,39 +8904,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8945,18 +8945,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8966,22 +8966,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -9312,31 +9312,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -9345,11 +9350,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -9380,39 +9380,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9421,18 +9421,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -9442,22 +9442,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -9750,31 +9750,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -9783,11 +9788,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -9818,39 +9818,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9859,18 +9859,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -9880,22 +9880,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -10224,31 +10224,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -10257,11 +10262,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -10292,39 +10292,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -10333,18 +10333,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -10357,18 +10357,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10644,31 +10644,36 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -10677,11 +10682,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>

--- a/참고자료/DB_테이블설계서.xlsx
+++ b/참고자료/DB_테이블설계서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12870" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MEMBER TABLE" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="323">
   <si>
     <t>TABLE SPECIFICATION v2.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1316,6 +1316,38 @@
   </si>
   <si>
     <t>PL_PR_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_PASS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_PHONE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_EMAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_SIGUNGU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_DONG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_ADDR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2476,24 +2508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2535,6 +2549,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2846,39 +2878,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2887,18 +2919,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -2908,22 +2940,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -3326,31 +3358,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -3359,11 +3396,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -3394,39 +3426,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3435,18 +3467,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -3459,18 +3491,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3802,36 +3834,31 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -3840,6 +3867,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -3870,39 +3902,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3911,18 +3943,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -3935,18 +3967,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4200,36 +4232,31 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -4238,6 +4265,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -4268,39 +4300,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4309,18 +4341,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -4333,18 +4365,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4618,36 +4650,31 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -4656,6 +4683,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -4686,39 +4718,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4727,18 +4759,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -4751,18 +4783,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5046,36 +5078,31 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -5084,6 +5111,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -5114,39 +5146,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5155,18 +5187,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -5176,22 +5208,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -5646,36 +5678,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -5684,6 +5711,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -5714,39 +5746,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5755,18 +5787,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -5776,22 +5808,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6030,31 +6062,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -6063,11 +6100,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -6098,39 +6130,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6139,18 +6171,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -6160,22 +6192,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6426,31 +6458,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -6459,11 +6496,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -6494,39 +6526,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6535,18 +6567,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
@@ -6556,22 +6588,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6798,31 +6830,36 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -6831,11 +6868,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -6847,8 +6879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6866,39 +6898,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6907,18 +6939,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -6928,22 +6960,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6982,7 +7014,7 @@
         <v>59</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>84</v>
@@ -7014,7 +7046,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="C9" s="50" t="s">
         <v>84</v>
@@ -7046,7 +7078,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="C10" s="50" t="s">
         <v>84</v>
@@ -7078,7 +7110,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>84</v>
@@ -7110,7 +7142,7 @@
         <v>64</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="C12" s="50" t="s">
         <v>84</v>
@@ -7142,7 +7174,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="C13" s="50" t="s">
         <v>84</v>
@@ -7174,7 +7206,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="C14" s="50" t="s">
         <v>84</v>
@@ -7206,7 +7238,7 @@
         <v>67</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="C15" s="50" t="s">
         <v>84</v>
@@ -7398,36 +7430,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -7436,6 +7463,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -7466,39 +7498,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7507,18 +7539,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -7528,22 +7560,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -7938,36 +7970,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -7976,6 +8003,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -8006,39 +8038,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8047,18 +8079,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8068,22 +8100,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -8358,36 +8390,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -8396,6 +8423,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -8407,7 +8439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -8426,39 +8458,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8467,18 +8499,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8488,22 +8520,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -8836,36 +8868,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -8874,6 +8901,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -8904,39 +8936,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8945,18 +8977,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -8966,22 +8998,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -9312,36 +9344,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -9350,6 +9377,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -9380,39 +9412,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9421,18 +9453,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -9442,22 +9474,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -9750,36 +9782,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -9788,6 +9815,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -9818,39 +9850,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9859,18 +9891,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -9880,22 +9912,22 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -10224,36 +10256,31 @@
       <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -10262,6 +10289,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
@@ -10292,39 +10324,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -10333,18 +10365,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="99" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="100"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
@@ -10357,18 +10389,18 @@
       <c r="A6" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="83"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="83" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10644,36 +10676,31 @@
       <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -10682,6 +10709,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31" right="0.27" top="0.46" bottom="0.31" header="0.31496062992125984" footer="0.23"/>
